--- a/Project1/Графики.xlsx
+++ b/Project1/Графики.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studies\1 course\2 semester\Algorithms and data structures\Lab1.02\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3633AED-281E-43E4-8BA5-DF81FEE1A5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1280803-50A9-441D-8E9D-8F840A2DC46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="2550" windowWidth="20790" windowHeight="11295" xr2:uid="{3B011CD1-7083-4A56-9C0E-5F59AA12C0F2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3B011CD1-7083-4A56-9C0E-5F59AA12C0F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>VECTOR</t>
   </si>
@@ -66,25 +66,13 @@
     <t>Map</t>
   </si>
   <si>
-    <t>Вставка</t>
-  </si>
-  <si>
     <t>Удаление (erase)</t>
   </si>
   <si>
     <t>UnorderedMap</t>
   </si>
   <si>
-    <t>0.117528</t>
-  </si>
-  <si>
-    <t>0.046257</t>
-  </si>
-  <si>
-    <t>0.247654</t>
-  </si>
-  <si>
-    <t>0.094146</t>
+    <t>Вставка (emplace)</t>
   </si>
 </sst>
 </file>
@@ -124,10 +112,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -445,7 +432,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,23 +472,23 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>5.8410000000000005E-4</v>
+      <c r="B3">
+        <v>8.5470000000000001E-4</v>
       </c>
       <c r="C3" s="1">
-        <v>1.1062999999999999E-3</v>
+        <v>1.6094E-3</v>
       </c>
       <c r="D3" s="1">
-        <v>2.4700999999999998E-3</v>
+        <v>3.1830000000000001E-3</v>
       </c>
       <c r="E3" s="1">
-        <v>4.4381999999999998E-3</v>
+        <v>6.6937000000000003E-3</v>
       </c>
       <c r="F3" s="1">
-        <v>8.8371999999999999E-3</v>
+        <v>1.2763399999999999E-2</v>
       </c>
       <c r="G3" s="1">
-        <v>1.8000200000000001E-2</v>
+        <v>2.6228600000000001E-2</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -511,22 +498,22 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>4.4420000000000001E-4</v>
+        <v>5.486E-4</v>
       </c>
       <c r="C4">
-        <v>9.1169999999999999E-4</v>
+        <v>8.8469999999999998E-4</v>
       </c>
       <c r="D4">
-        <v>1.7910999999999999E-3</v>
+        <v>1.8385000000000001E-3</v>
       </c>
       <c r="E4">
-        <v>3.5604E-3</v>
+        <v>3.6889000000000002E-3</v>
       </c>
       <c r="F4">
-        <v>7.4459000000000001E-3</v>
+        <v>7.2544000000000003E-3</v>
       </c>
       <c r="G4">
-        <v>1.42734E-2</v>
+        <v>1.41023E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -539,22 +526,22 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>1.9392999999999999E-3</v>
+        <v>2.1461000000000002E-3</v>
       </c>
       <c r="C7">
-        <v>4.0818E-3</v>
+        <v>4.2417000000000002E-3</v>
       </c>
       <c r="D7">
-        <v>7.9780000000000007E-3</v>
+        <v>8.4823999999999993E-3</v>
       </c>
       <c r="E7">
-        <v>1.7463200000000002E-2</v>
+        <v>1.7236999999999999E-2</v>
       </c>
       <c r="F7">
-        <v>3.3112000000000003E-2</v>
+        <v>3.5101500000000001E-2</v>
       </c>
       <c r="G7">
-        <v>6.4210500000000004E-2</v>
+        <v>6.6679600000000006E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -562,22 +549,22 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>1.3300000000000001E-4</v>
+        <v>1.2775E-3</v>
       </c>
       <c r="C8">
-        <v>2.6719999999999999E-4</v>
+        <v>2.5490999999999999E-3</v>
       </c>
       <c r="D8">
-        <v>5.3070000000000005E-4</v>
+        <v>5.2151999999999997E-3</v>
       </c>
       <c r="E8">
-        <v>1.0264E-3</v>
+        <v>1.04522E-2</v>
       </c>
       <c r="F8">
-        <v>2.2433000000000002E-3</v>
+        <v>2.0676300000000002E-2</v>
       </c>
       <c r="G8">
-        <v>4.3086000000000001E-3</v>
+        <v>4.0800099999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -590,22 +577,22 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>1.9842000000000002E-3</v>
+        <v>2.2913999999999999E-3</v>
       </c>
       <c r="C11">
-        <v>4.2471000000000002E-3</v>
+        <v>4.3071000000000003E-3</v>
       </c>
       <c r="D11">
-        <v>7.528E-3</v>
+        <v>8.3979999999999992E-3</v>
       </c>
       <c r="E11">
-        <v>1.5351E-2</v>
+        <v>1.67612E-2</v>
       </c>
       <c r="F11">
-        <v>3.0007599999999999E-2</v>
+        <v>3.3415300000000002E-2</v>
       </c>
       <c r="G11">
-        <v>6.5879599999999996E-2</v>
+        <v>6.6009600000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -613,22 +600,22 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>2.0143000000000001E-3</v>
+        <v>1.3101E-3</v>
       </c>
       <c r="C12">
-        <v>2.8081E-3</v>
+        <v>2.5988000000000001E-3</v>
       </c>
       <c r="D12">
-        <v>5.6937999999999997E-3</v>
+        <v>5.2341999999999996E-3</v>
       </c>
       <c r="E12">
-        <v>1.1018500000000001E-2</v>
+        <v>1.09672E-2</v>
       </c>
       <c r="F12">
-        <v>2.2071899999999998E-2</v>
+        <v>2.0860799999999999E-2</v>
       </c>
       <c r="G12">
-        <v>4.6533400000000003E-2</v>
+        <v>4.1725199999999997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -641,13 +628,13 @@
         <v>7</v>
       </c>
       <c r="B15">
-        <v>9.9139999999999992E-4</v>
+        <v>1.3129999999999999E-3</v>
       </c>
       <c r="C15">
-        <v>2.4516E-3</v>
+        <v>2.5338000000000001E-3</v>
       </c>
       <c r="D15">
-        <v>3.8869E-3</v>
+        <v>5.3274999999999998E-3</v>
       </c>
       <c r="E15">
         <v>8.6014000000000004E-3</v>
@@ -658,13 +645,13 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <v>1.159E-4</v>
+        <v>1.031E-4</v>
       </c>
       <c r="C16">
-        <v>2.721E-4</v>
+        <v>2.0589999999999999E-4</v>
       </c>
       <c r="D16">
-        <v>4.4299999999999998E-4</v>
+        <v>4.1209999999999999E-4</v>
       </c>
       <c r="E16">
         <v>8.8310000000000005E-4</v>
@@ -677,99 +664,99 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>8.149E-3</v>
+        <v>7.476E-3</v>
       </c>
       <c r="C19">
-        <v>1.6656000000000001E-2</v>
+        <v>1.5796999999999999E-2</v>
       </c>
       <c r="D19">
-        <v>3.5768000000000001E-2</v>
+        <v>3.0158999999999998E-2</v>
       </c>
       <c r="E19">
-        <v>7.4768000000000001E-2</v>
+        <v>5.8862999999999999E-2</v>
       </c>
       <c r="F19">
-        <v>0.14977599999999999</v>
+        <v>0.11045099999999999</v>
       </c>
       <c r="G19">
-        <v>0.31101499999999999</v>
+        <v>0.198986</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>8.0630000000000007E-3</v>
+        <v>1.1074000000000001E-2</v>
       </c>
       <c r="C20">
-        <v>1.6645E-2</v>
+        <v>2.2467000000000001E-2</v>
       </c>
       <c r="D20">
-        <v>3.4604000000000003E-2</v>
+        <v>4.1980999999999997E-2</v>
       </c>
       <c r="E20">
-        <v>7.2937000000000002E-2</v>
+        <v>7.0914000000000005E-2</v>
       </c>
       <c r="F20">
-        <v>0.148729</v>
+        <v>0.116213</v>
       </c>
       <c r="G20">
-        <v>0.30990800000000002</v>
+        <v>0.18022099999999999</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>8.3370000000000007E-3</v>
+        <v>6.3449999999999999E-3</v>
       </c>
       <c r="C23">
-        <v>1.2488000000000001E-2</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="D23">
-        <v>2.9159999999999998E-2</v>
+        <v>1.8681E-2</v>
       </c>
       <c r="E23">
-        <v>5.8531E-2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
+        <v>2.8289999999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>4.8822999999999998E-2</v>
+      </c>
+      <c r="G23">
+        <v>7.8820000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>4.2249999999999996E-3</v>
+        <v>2.3180000000000002E-3</v>
       </c>
       <c r="C24">
-        <v>4.7450000000000001E-3</v>
+        <v>7.5750000000000001E-3</v>
       </c>
       <c r="D24">
-        <v>1.0817999999999999E-2</v>
+        <v>8.7500000000000008E-3</v>
       </c>
       <c r="E24">
-        <v>2.2948E-2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
+        <v>1.3140000000000001E-2</v>
+      </c>
+      <c r="F24">
+        <v>2.0275000000000001E-2</v>
+      </c>
+      <c r="G24">
+        <v>3.1036000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Project1/Графики.xlsx
+++ b/Project1/Графики.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studies\1 course\2 semester\Algorithms and data structures\Lab1.02\Project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studies\Algorithms\lab5\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1280803-50A9-441D-8E9D-8F840A2DC46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7272BA-E0B6-4BAB-A205-27385B4C7D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3B011CD1-7083-4A56-9C0E-5F59AA12C0F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3B011CD1-7083-4A56-9C0E-5F59AA12C0F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,30 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>VECTOR</t>
-  </si>
-  <si>
-    <t>Удаление (pop_back)</t>
-  </si>
-  <si>
-    <t>Добавление (push_back)</t>
   </si>
   <si>
     <t>STACK</t>
   </si>
   <si>
-    <t>Вставка элемента (push)</t>
-  </si>
-  <si>
-    <t>Удаление элемента (pop)</t>
-  </si>
-  <si>
     <t>QUEUE</t>
-  </si>
-  <si>
-    <t>Вставка (push)</t>
   </si>
   <si>
     <t>MY QUEUE</t>
@@ -66,13 +51,43 @@
     <t>Map</t>
   </si>
   <si>
-    <t>Удаление (erase)</t>
-  </si>
-  <si>
     <t>UnorderedMap</t>
   </si>
   <si>
-    <t>Вставка (emplace)</t>
+    <t>Добавление в вектор (push_back)</t>
+  </si>
+  <si>
+    <t>Удаление из вектора (pop_back)</t>
+  </si>
+  <si>
+    <t>Вставка элемента в стек (push)</t>
+  </si>
+  <si>
+    <t>Удаление элемента из стека (pop)</t>
+  </si>
+  <si>
+    <t>Вставка в очередь (push)</t>
+  </si>
+  <si>
+    <t>Удаление элемента из очереди (pop)</t>
+  </si>
+  <si>
+    <t>Вставка (push) моя очередь</t>
+  </si>
+  <si>
+    <t>Удаление элемента (pop) моя очередь</t>
+  </si>
+  <si>
+    <t>Вставка (emplace) в map</t>
+  </si>
+  <si>
+    <t>Удаление (erase) из map</t>
+  </si>
+  <si>
+    <t>Вставка (emplace) в und map</t>
+  </si>
+  <si>
+    <t>Удаление (erase) из und map</t>
   </si>
 </sst>
 </file>
@@ -130,6 +145,8071 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сравнение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> очередей</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32612489063867017"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вставка в очередь (push)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.2913999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3071000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3979999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.67612E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E7C3-42C3-9FDA-D244B156AD77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Удаление элемента из очереди (pop)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$12:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.3101E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5988000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2341999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.09672E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E7C3-42C3-9FDA-D244B156AD77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вставка (push) моя очередь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.3129999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5338000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3274999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6014000000000004E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E7C3-42C3-9FDA-D244B156AD77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Удаление элемента (pop) моя очередь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$16:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.031E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0589999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1209999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8310000000000005E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E7C3-42C3-9FDA-D244B156AD77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1901978640"/>
+        <c:axId val="1901973360"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$13:$E$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-E7C3-42C3-9FDA-D244B156AD77}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>MY QUEUE</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$14:$E$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-E7C3-42C3-9FDA-D244B156AD77}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1901978640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1901973360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1901973360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1901978640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Заполнение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> различных АТД</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26779155730533677"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Добавление в вектор (push_back)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>8.5470000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6094E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1830000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6937000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2763399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6228600000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-67F9-4F48-A73F-47B63A2DE4B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вставка элемента в стек (push)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.1461000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2417000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4823999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7236999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5101500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6679600000000006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-67F9-4F48-A73F-47B63A2DE4B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вставка в очередь (push)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.2913999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3071000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3979999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.67612E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3415300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6009600000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-67F9-4F48-A73F-47B63A2DE4B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вставка (push) моя очередь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$15:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.3129999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5338000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3274999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6014000000000004E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-67F9-4F48-A73F-47B63A2DE4B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вставка (emplace) в map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$19:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.476E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5796999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0158999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8862999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11045099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.198986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-67F9-4F48-A73F-47B63A2DE4B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вставка (emplace) в und map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$23:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.3449999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8681E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8289999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8822999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8820000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-67F9-4F48-A73F-47B63A2DE4B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1913665488"/>
+        <c:axId val="1913663088"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>VECTOR</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$2:$G$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-67F9-4F48-A73F-47B63A2DE4B7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Удаление из вектора (pop_back)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$4:$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>5.486E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8.8469999999999998E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.8385000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.6889000000000002E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7.2544000000000003E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.41023E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-67F9-4F48-A73F-47B63A2DE4B7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$5:$G$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-67F9-4F48-A73F-47B63A2DE4B7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>STACK</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$6:$G$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-67F9-4F48-A73F-47B63A2DE4B7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Удаление элемента из стека (pop)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$8:$G$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1.2775E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.5490999999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2151999999999997E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.04522E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.0676300000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.0800099999999999E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-67F9-4F48-A73F-47B63A2DE4B7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$9:$G$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-67F9-4F48-A73F-47B63A2DE4B7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>QUEUE</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$10:$G$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-67F9-4F48-A73F-47B63A2DE4B7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Удаление элемента из очереди (pop)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$12:$G$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1.3101E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.5988000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2341999999999996E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.09672E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.0860799999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.1725199999999997E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-67F9-4F48-A73F-47B63A2DE4B7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$13:$G$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-67F9-4F48-A73F-47B63A2DE4B7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="12"/>
+                <c:order val="12"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>MY QUEUE</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$14:$G$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-67F9-4F48-A73F-47B63A2DE4B7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="14"/>
+                <c:order val="14"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Удаление элемента (pop) моя очередь</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$16:$G$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1.031E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.0589999999999999E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4.1209999999999999E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.8310000000000005E-4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000E-67F9-4F48-A73F-47B63A2DE4B7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="15"/>
+                <c:order val="15"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$17:$G$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000F-67F9-4F48-A73F-47B63A2DE4B7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="16"/>
+                <c:order val="16"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Map</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$18:$G$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000010-67F9-4F48-A73F-47B63A2DE4B7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="18"/>
+                <c:order val="18"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Удаление (erase) из map</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="80000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$20:$G$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1.1074000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.2467000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4.1980999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7.0914000000000005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.116213</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.18022099999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000012-67F9-4F48-A73F-47B63A2DE4B7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="19"/>
+                <c:order val="19"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="80000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$21:$G$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000013-67F9-4F48-A73F-47B63A2DE4B7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="20"/>
+                <c:order val="20"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>UnorderedMap</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="80000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$22:$G$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000014-67F9-4F48-A73F-47B63A2DE4B7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="22"/>
+                <c:order val="22"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Удаление (erase) из und map</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="80000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$24:$G$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>2.3180000000000002E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.5750000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.7500000000000008E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.3140000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.0275000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3.1036000000000001E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000016-67F9-4F48-A73F-47B63A2DE4B7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1913665488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1913663088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1913663088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1913665488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Удаление</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> элементов в различных АТД</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.2817147856517939E-2"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.8966272965879265"/>
+          <c:h val="0.48130103528725576"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Удаление из вектора (pop_back)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.486E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8469999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8385000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6889000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2544000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.41023E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C5D3-4D5E-BEC4-0386B45743D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Удаление элемента из стека (pop)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.2775E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5490999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2151999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.04522E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0676300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0800099999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C5D3-4D5E-BEC4-0386B45743D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Удаление элемента из очереди (pop)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.3101E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5988000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2341999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.09672E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0860799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1725199999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-C5D3-4D5E-BEC4-0386B45743D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Удаление элемента (pop) моя очередь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$16:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.031E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0589999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1209999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8310000000000005E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-C5D3-4D5E-BEC4-0386B45743D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Удаление (erase) из map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.1074000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2467000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1980999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0914000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.116213</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18022099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-C5D3-4D5E-BEC4-0386B45743D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Удаление (erase) из und map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$24:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.3180000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5750000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7500000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3140000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0275000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1036000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-C5D3-4D5E-BEC4-0386B45743D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2011161936"/>
+        <c:axId val="2011136976"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>VECTOR</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$2:$G$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-C5D3-4D5E-BEC4-0386B45743D3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Добавление в вектор (push_back)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$3:$G$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000000</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>8.5470000000000001E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.6094E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.1830000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.6937000000000003E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.2763399999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.6228600000000001E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-C5D3-4D5E-BEC4-0386B45743D3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$5:$G$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-C5D3-4D5E-BEC4-0386B45743D3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>STACK</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$6:$G$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-C5D3-4D5E-BEC4-0386B45743D3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Вставка элемента в стек (push)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$7:$G$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>2.1461000000000002E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.2417000000000002E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.4823999999999993E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.7236999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.5101500000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6.6679600000000006E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-C5D3-4D5E-BEC4-0386B45743D3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$9:$G$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-C5D3-4D5E-BEC4-0386B45743D3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>QUEUE</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$10:$G$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-C5D3-4D5E-BEC4-0386B45743D3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Вставка в очередь (push)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$11:$G$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>2.2913999999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.3071000000000003E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.3979999999999992E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.67612E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.3415300000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6.6009600000000002E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-C5D3-4D5E-BEC4-0386B45743D3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$13:$G$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-C5D3-4D5E-BEC4-0386B45743D3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="12"/>
+                <c:order val="12"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>MY QUEUE</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$14:$G$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-C5D3-4D5E-BEC4-0386B45743D3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="13"/>
+                <c:order val="13"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Вставка (push) моя очередь</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$15:$G$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1.3129999999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.5338000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.3274999999999998E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.6014000000000004E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000D-C5D3-4D5E-BEC4-0386B45743D3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="15"/>
+                <c:order val="15"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$17:$G$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000F-C5D3-4D5E-BEC4-0386B45743D3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="16"/>
+                <c:order val="16"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Map</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$18:$G$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000010-C5D3-4D5E-BEC4-0386B45743D3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="17"/>
+                <c:order val="17"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Вставка (emplace) в map</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$19:$G$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>7.476E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.5796999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.0158999999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.8862999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.11045099999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.198986</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000011-C5D3-4D5E-BEC4-0386B45743D3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="19"/>
+                <c:order val="19"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="80000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$21:$G$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000013-C5D3-4D5E-BEC4-0386B45743D3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="20"/>
+                <c:order val="20"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>UnorderedMap</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="80000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$22:$G$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000014-C5D3-4D5E-BEC4-0386B45743D3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="21"/>
+                <c:order val="21"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Вставка (emplace) в und map</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="80000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$1:$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>160000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>320000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$23:$G$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>6.3449999999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.6299999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.8681E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.8289999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.8822999999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.8820000000000001E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000015-C5D3-4D5E-BEC4-0386B45743D3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2011161936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2011136976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2011136976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2011161936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9527777777777775E-2"/>
+          <c:y val="0.79282079323417909"/>
+          <c:w val="0.92316666666666647"/>
+          <c:h val="0.17940142898804315"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D4B1A1-3E2D-BA5B-7C23-F590A98CE0FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91119F4A-9986-F333-0971-6BAC5CAD3428}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E637020-138D-EC94-DA8E-49126C91C5E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,46 +8511,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098734B9-A4A8-4496-8340-82B8CE6C2C4A}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection sqref="A1:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>10000</v>
+      </c>
+      <c r="C1">
+        <v>20000</v>
+      </c>
+      <c r="D1">
+        <v>40000</v>
+      </c>
+      <c r="E1">
+        <v>80000</v>
+      </c>
+      <c r="F1">
+        <v>160000</v>
+      </c>
+      <c r="G1">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>10000</v>
-      </c>
-      <c r="C2">
-        <v>20000</v>
-      </c>
-      <c r="D2">
-        <v>40000</v>
-      </c>
-      <c r="E2">
-        <v>80000</v>
-      </c>
-      <c r="F2">
-        <v>160000</v>
-      </c>
-      <c r="G2">
-        <v>320000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>8.5470000000000001E-4</v>
@@ -493,9 +8573,9 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>5.486E-4</v>
@@ -516,14 +8596,14 @@
         <v>1.41023E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>2.1461000000000002E-3</v>
@@ -544,9 +8624,9 @@
         <v>6.6679600000000006E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1.2775E-3</v>
@@ -567,14 +8647,14 @@
         <v>4.0800099999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>2.2913999999999999E-3</v>
@@ -595,9 +8675,9 @@
         <v>6.6009600000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1.3101E-3</v>
@@ -618,14 +8698,14 @@
         <v>4.1725199999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>1.3129999999999999E-3</v>
@@ -640,9 +8720,9 @@
         <v>8.6014000000000004E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>1.031E-4</v>
@@ -657,14 +8737,14 @@
         <v>8.8310000000000005E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>7.476E-3</v>
@@ -685,9 +8765,9 @@
         <v>0.198986</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>1.1074000000000001E-2</v>
@@ -708,14 +8788,14 @@
         <v>0.18022099999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>6.3449999999999999E-3</v>
@@ -736,9 +8816,9 @@
         <v>7.8820000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>2.3180000000000002E-3</v>
@@ -761,5 +8841,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>